--- a/Code/Results/Cases/Case_4_147/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_147/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.474845327285664</v>
+        <v>1.802135104405522</v>
       </c>
       <c r="C2">
-        <v>0.9160100177702191</v>
+        <v>0.3891317079198302</v>
       </c>
       <c r="D2">
-        <v>0.560120636648719</v>
+        <v>0.6669206992951331</v>
       </c>
       <c r="E2">
-        <v>0.2505274712340722</v>
+        <v>0.2718350268723029</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.958506695421619</v>
+        <v>2.434755334442031</v>
       </c>
       <c r="H2">
-        <v>1.624349646712432</v>
+        <v>1.886318112648723</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1487631914674665</v>
+        <v>0.1413281424595567</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.9987354966147</v>
+        <v>1.689558433147681</v>
       </c>
       <c r="C3">
-        <v>0.787982464123786</v>
+        <v>0.3582393212594468</v>
       </c>
       <c r="D3">
-        <v>0.5024446289973525</v>
+        <v>0.6576310717023546</v>
       </c>
       <c r="E3">
-        <v>0.22333457080925</v>
+        <v>0.2671919136001009</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.652159278749053</v>
+        <v>2.373819228495535</v>
       </c>
       <c r="H3">
-        <v>1.490727620556299</v>
+        <v>1.865367232599567</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1315642019405345</v>
+        <v>0.1381904177401978</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.712010939232414</v>
+        <v>1.621589877640758</v>
       </c>
       <c r="C4">
-        <v>0.7108032019235679</v>
+        <v>0.3395084973742541</v>
       </c>
       <c r="D4">
-        <v>0.4682650893980451</v>
+        <v>0.6523081617365278</v>
       </c>
       <c r="E4">
-        <v>0.2072072654784378</v>
+        <v>0.2645036094725768</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.472034857236139</v>
+        <v>2.337962502499778</v>
       </c>
       <c r="H4">
-        <v>1.412777405399368</v>
+        <v>1.853537980294675</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1213548884629532</v>
+        <v>0.1363535972871119</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.596370516793115</v>
+        <v>1.594180636723536</v>
       </c>
       <c r="C5">
-        <v>0.6796537328264662</v>
+        <v>0.3319346987271956</v>
       </c>
       <c r="D5">
-        <v>0.4546116190063287</v>
+        <v>0.6502344270770948</v>
       </c>
       <c r="E5">
-        <v>0.2007615503196547</v>
+        <v>0.2634487776029744</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.400401551860426</v>
+        <v>2.323737897705001</v>
       </c>
       <c r="H5">
-        <v>1.381930401313525</v>
+        <v>1.848975667595312</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1172719090281475</v>
+        <v>0.1356274987801669</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.57723544455132</v>
+        <v>1.58964673008569</v>
       </c>
       <c r="C6">
-        <v>0.6744980347902185</v>
+        <v>0.3306806347700899</v>
       </c>
       <c r="D6">
-        <v>0.4523601161902207</v>
+        <v>0.6498958350793487</v>
       </c>
       <c r="E6">
-        <v>0.1996984126708483</v>
+        <v>0.2632760741359377</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.388607275717675</v>
+        <v>2.321399172811141</v>
       </c>
       <c r="H6">
-        <v>1.37686070815775</v>
+        <v>1.848233636512987</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1165983125605976</v>
+        <v>0.135508280534971</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.710446763908124</v>
+        <v>1.621219061077625</v>
       </c>
       <c r="C7">
-        <v>0.710381959680717</v>
+        <v>0.339406115551725</v>
       </c>
       <c r="D7">
-        <v>0.4680798845292031</v>
+        <v>0.6522798088965942</v>
       </c>
       <c r="E7">
-        <v>0.2071198459422448</v>
+        <v>0.2644892192270163</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.471061918222063</v>
+        <v>2.337769102304833</v>
       </c>
       <c r="H7">
-        <v>1.412357812306936</v>
+        <v>1.853475408482353</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1212995240944323</v>
+        <v>0.1363437142823969</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.309385960738837</v>
+        <v>1.763078089718306</v>
       </c>
       <c r="C8">
-        <v>0.8715323266495432</v>
+        <v>0.3784304662051454</v>
       </c>
       <c r="D8">
-        <v>0.539955434110567</v>
+        <v>0.6636383191798814</v>
       </c>
       <c r="E8">
-        <v>0.2410224852922909</v>
+        <v>0.270200207070495</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.851072877534449</v>
+        <v>2.413418377106524</v>
       </c>
       <c r="H8">
-        <v>1.577356332934301</v>
+        <v>1.878878300684761</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1427532342287066</v>
+        <v>0.1402275345665771</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.539169813275805</v>
+        <v>2.050514955470817</v>
       </c>
       <c r="C9">
-        <v>1.201904455406805</v>
+        <v>0.4568666952109766</v>
       </c>
       <c r="D9">
-        <v>0.6925127553612072</v>
+        <v>0.6889554992229137</v>
       </c>
       <c r="E9">
-        <v>0.3128924280814545</v>
+        <v>0.282700029089888</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.671697369348493</v>
+        <v>2.574345834378363</v>
       </c>
       <c r="H9">
-        <v>1.939122891575778</v>
+        <v>1.936996759959186</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.188169304450426</v>
+        <v>0.148563244009928</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.493921754651979</v>
+        <v>2.267495682378581</v>
       </c>
       <c r="C10">
-        <v>1.458314118652936</v>
+        <v>0.5157034099338489</v>
       </c>
       <c r="D10">
-        <v>0.8146388573394461</v>
+        <v>0.7094429611132966</v>
       </c>
       <c r="E10">
-        <v>0.3703983639278903</v>
+        <v>0.2926927000004582</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.340328096564008</v>
+        <v>2.700560783556853</v>
       </c>
       <c r="H10">
-        <v>2.237492510687389</v>
+        <v>1.984895272953707</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2244919147063769</v>
+        <v>0.1551373350398109</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.94418532300773</v>
+        <v>2.367503136521293</v>
       </c>
       <c r="C11">
-        <v>1.579294019457677</v>
+        <v>0.5427430697430964</v>
       </c>
       <c r="D11">
-        <v>0.8731900933527186</v>
+        <v>0.7191802061817896</v>
       </c>
       <c r="E11">
-        <v>0.3979700210503836</v>
+        <v>0.2974179737794529</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.664172977736541</v>
+        <v>2.759781383129791</v>
       </c>
       <c r="H11">
-        <v>2.382843733909624</v>
+        <v>2.00784473781971</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2419097313332514</v>
+        <v>0.1582282642519601</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.117469101011636</v>
+        <v>2.405563231881843</v>
       </c>
       <c r="C12">
-        <v>1.62586923171466</v>
+        <v>0.5530225316312567</v>
       </c>
       <c r="D12">
-        <v>0.8958755705447459</v>
+        <v>0.7229280182389175</v>
       </c>
       <c r="E12">
-        <v>0.4086535368127429</v>
+        <v>0.2992334126267053</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.790185497751622</v>
+        <v>2.782471618890554</v>
       </c>
       <c r="H12">
-        <v>2.439527323417906</v>
+        <v>2.016704317588051</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2486598431919163</v>
+        <v>0.159413341989989</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.080017042017346</v>
+        <v>2.397357847148214</v>
       </c>
       <c r="C13">
-        <v>1.615802004000443</v>
+        <v>0.5508068701616935</v>
       </c>
       <c r="D13">
-        <v>0.8909655315147802</v>
+        <v>0.7221181595958512</v>
       </c>
       <c r="E13">
-        <v>0.4063411426867489</v>
+        <v>0.2988412612537132</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.762886295308192</v>
+        <v>2.777573016154577</v>
       </c>
       <c r="H13">
-        <v>2.427241821486973</v>
+        <v>2.014788690425291</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2471987580450161</v>
+        <v>0.1591574615914482</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.958382688343363</v>
+        <v>2.370630553584476</v>
       </c>
       <c r="C14">
-        <v>1.583109613086606</v>
+        <v>0.5435879591767048</v>
       </c>
       <c r="D14">
-        <v>0.8750456237173978</v>
+        <v>0.719487324892981</v>
       </c>
       <c r="E14">
-        <v>0.3988438417762055</v>
+        <v>0.2975668068263388</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.674468863520644</v>
+        <v>2.761642788146276</v>
       </c>
       <c r="H14">
-        <v>2.387472561024254</v>
+        <v>2.008570218272666</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2424618086363495</v>
+        <v>0.1583254674547021</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.884255958785729</v>
+        <v>2.354284053713457</v>
       </c>
       <c r="C15">
-        <v>1.563188484848183</v>
+        <v>0.539171413596705</v>
       </c>
       <c r="D15">
-        <v>0.8653637930676439</v>
+        <v>0.717883760599392</v>
       </c>
       <c r="E15">
-        <v>0.3942844428738539</v>
+        <v>0.2967895709356867</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.620768771357461</v>
+        <v>2.751919686738972</v>
       </c>
       <c r="H15">
-        <v>2.363335098662105</v>
+        <v>2.004783316606961</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2395812392484373</v>
+        <v>0.1578177551057394</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.464856374583803</v>
+        <v>2.260986345689162</v>
       </c>
       <c r="C16">
-        <v>1.450506387363532</v>
+        <v>0.5139418840631151</v>
       </c>
       <c r="D16">
-        <v>0.8108794016573313</v>
+        <v>0.7088150514007339</v>
       </c>
       <c r="E16">
-        <v>0.3686281333168751</v>
+        <v>0.2923875274860208</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.31960484330267</v>
+        <v>2.69672733410161</v>
       </c>
       <c r="H16">
-        <v>2.228208137591082</v>
+        <v>1.983419011755899</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2233737123196278</v>
+        <v>0.1549373700526928</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.211970983527181</v>
+        <v>2.20408621931972</v>
       </c>
       <c r="C17">
-        <v>1.382581671011792</v>
+        <v>0.4985351560888489</v>
       </c>
       <c r="D17">
-        <v>0.7782764699771008</v>
+        <v>0.7033589539820184</v>
       </c>
       <c r="E17">
-        <v>0.3532764932473853</v>
+        <v>0.2897331884028773</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.14025220878753</v>
+        <v>2.663334509130152</v>
       </c>
       <c r="H17">
-        <v>2.147946292397023</v>
+        <v>1.970611468691146</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2136768935172739</v>
+        <v>0.1531961745293131</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.067984835216862</v>
+        <v>2.171481166538229</v>
       </c>
       <c r="C18">
-        <v>1.343911798772353</v>
+        <v>0.4896994143367124</v>
       </c>
       <c r="D18">
-        <v>0.7598003381484659</v>
+        <v>0.7002600071398604</v>
       </c>
       <c r="E18">
-        <v>0.3445767757270985</v>
+        <v>0.2882233676391053</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.038907732817506</v>
+        <v>2.644297402415532</v>
       </c>
       <c r="H18">
-        <v>2.10266947266831</v>
+        <v>1.963353973050431</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2081819430184311</v>
+        <v>0.1522041185381369</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.019472092611181</v>
+        <v>2.160462610587956</v>
       </c>
       <c r="C19">
-        <v>1.330883481392561</v>
+        <v>0.4867121959240421</v>
       </c>
       <c r="D19">
-        <v>0.7535897950292849</v>
+        <v>0.6992174840129053</v>
       </c>
       <c r="E19">
-        <v>0.3416524572792028</v>
+        <v>0.2877150604469492</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.004890689191683</v>
+        <v>2.63788073179677</v>
       </c>
       <c r="H19">
-        <v>2.087484832870814</v>
+        <v>1.960915372619638</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2063348905870583</v>
+        <v>0.1518698402167473</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.23873600493198</v>
+        <v>2.210130651561769</v>
       </c>
       <c r="C20">
-        <v>1.389770190892648</v>
+        <v>0.5001725536866388</v>
       </c>
       <c r="D20">
-        <v>0.7817179691873832</v>
+        <v>0.703935698378757</v>
       </c>
       <c r="E20">
-        <v>0.3548969677978917</v>
+        <v>0.2900139979468292</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.159153150439863</v>
+        <v>2.666871646105079</v>
       </c>
       <c r="H20">
-        <v>2.15639670533389</v>
+        <v>1.971963549344849</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2147004364821754</v>
+        <v>0.1533805501246661</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.994029910724407</v>
+        <v>2.378475847830543</v>
       </c>
       <c r="C21">
-        <v>1.592690220706061</v>
+        <v>0.5457072338941771</v>
       </c>
       <c r="D21">
-        <v>0.8797070179309969</v>
+        <v>0.720258417971479</v>
       </c>
       <c r="E21">
-        <v>0.4010390398543322</v>
+        <v>0.2979404350702737</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.700342603245417</v>
+        <v>2.766314657527857</v>
       </c>
       <c r="H21">
-        <v>2.399106886510765</v>
+        <v>2.010392126191789</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.243848746789368</v>
+        <v>0.1585694463296932</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.504149383679191</v>
+        <v>2.489604490846261</v>
       </c>
       <c r="C22">
-        <v>1.729840962125877</v>
+        <v>0.5757010073887727</v>
       </c>
       <c r="D22">
-        <v>0.9467911780909049</v>
+        <v>0.7312793118694287</v>
       </c>
       <c r="E22">
-        <v>0.4326345046024258</v>
+        <v>0.3032729608342635</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.074072829207694</v>
+        <v>2.832851610610646</v>
       </c>
       <c r="H22">
-        <v>2.567461241182627</v>
+        <v>2.036494239094282</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2638142931379264</v>
+        <v>0.162045934736355</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.230194888960625</v>
+        <v>2.430191140319948</v>
       </c>
       <c r="C23">
-        <v>1.656173303967876</v>
+        <v>0.5596711118884627</v>
       </c>
       <c r="D23">
-        <v>0.9106771817801871</v>
+        <v>0.725364777621337</v>
       </c>
       <c r="E23">
-        <v>0.4156245950297688</v>
+        <v>0.3004128829294856</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.872563709539634</v>
+        <v>2.797196480808338</v>
       </c>
       <c r="H23">
-        <v>2.476618524711512</v>
+        <v>2.022471994147566</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2530647056991597</v>
+        <v>0.1601826066966368</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.226631210331561</v>
+        <v>2.207397628801061</v>
       </c>
       <c r="C24">
-        <v>1.386519084587974</v>
+        <v>0.4994322184062412</v>
       </c>
       <c r="D24">
-        <v>0.7801612395015241</v>
+        <v>0.7036748344233388</v>
       </c>
       <c r="E24">
-        <v>0.3541639612298795</v>
+        <v>0.2898869935305086</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.150602568685031</v>
+        <v>2.665272005783748</v>
       </c>
       <c r="H24">
-        <v>2.152573592709047</v>
+        <v>1.97135194452332</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2142374457717722</v>
+        <v>0.1532971659593869</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.198911739389416</v>
+        <v>1.971748911304303</v>
       </c>
       <c r="C25">
-        <v>1.110529883993536</v>
+        <v>0.4354385768227758</v>
       </c>
       <c r="D25">
-        <v>0.6497199051128177</v>
+        <v>0.6817775049526631</v>
       </c>
       <c r="E25">
-        <v>0.2927394627297986</v>
+        <v>0.279177608410599</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.439761822286016</v>
+        <v>2.529431850769811</v>
       </c>
       <c r="H25">
-        <v>1.836289973224041</v>
+        <v>1.920371187916118</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1754387927670038</v>
+        <v>0.1462300382451573</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_147/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_147/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.802135104405522</v>
+        <v>3.47484532728555</v>
       </c>
       <c r="C2">
-        <v>0.3891317079198302</v>
+        <v>0.9160100177704749</v>
       </c>
       <c r="D2">
-        <v>0.6669206992951331</v>
+        <v>0.5601206366489464</v>
       </c>
       <c r="E2">
-        <v>0.2718350268723029</v>
+        <v>0.2505274712341006</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.434755334442031</v>
+        <v>2.958506695421647</v>
       </c>
       <c r="H2">
-        <v>1.886318112648723</v>
+        <v>1.624349646712488</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1413281424595567</v>
+        <v>0.1487631914674026</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.689558433147681</v>
+        <v>2.998735496614813</v>
       </c>
       <c r="C3">
-        <v>0.3582393212594468</v>
+        <v>0.7879824641235302</v>
       </c>
       <c r="D3">
-        <v>0.6576310717023546</v>
+        <v>0.5024446289971252</v>
       </c>
       <c r="E3">
-        <v>0.2671919136001009</v>
+        <v>0.2233345708092074</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.373819228495535</v>
+        <v>2.65215927874911</v>
       </c>
       <c r="H3">
-        <v>1.865367232599567</v>
+        <v>1.490727620556328</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1381904177401978</v>
+        <v>0.1315642019405345</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.621589877640758</v>
+        <v>2.7120109392323</v>
       </c>
       <c r="C4">
-        <v>0.3395084973742541</v>
+        <v>0.7108032019236248</v>
       </c>
       <c r="D4">
-        <v>0.6523081617365278</v>
+        <v>0.4682650893980735</v>
       </c>
       <c r="E4">
-        <v>0.2645036094725768</v>
+        <v>0.2072072654784094</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.337962502499778</v>
+        <v>2.472034857236196</v>
       </c>
       <c r="H4">
-        <v>1.853537980294675</v>
+        <v>1.412777405399396</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1363535972871119</v>
+        <v>0.1213548884628892</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.594180636723536</v>
+        <v>2.596370516793286</v>
       </c>
       <c r="C5">
-        <v>0.3319346987271956</v>
+        <v>0.6796537328264094</v>
       </c>
       <c r="D5">
-        <v>0.6502344270770948</v>
+        <v>0.4546116190060445</v>
       </c>
       <c r="E5">
-        <v>0.2634487776029744</v>
+        <v>0.2007615503196547</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.323737897705001</v>
+        <v>2.400401551860398</v>
       </c>
       <c r="H5">
-        <v>1.848975667595312</v>
+        <v>1.381930401313525</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1356274987801669</v>
+        <v>0.1172719090281618</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.58964673008569</v>
+        <v>2.577235444551263</v>
       </c>
       <c r="C6">
-        <v>0.3306806347700899</v>
+        <v>0.6744980347900764</v>
       </c>
       <c r="D6">
-        <v>0.6498958350793487</v>
+        <v>0.4523601161901354</v>
       </c>
       <c r="E6">
-        <v>0.2632760741359377</v>
+        <v>0.1996984126708057</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.321399172811141</v>
+        <v>2.388607275717732</v>
       </c>
       <c r="H6">
-        <v>1.848233636512987</v>
+        <v>1.376860708157778</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.135508280534971</v>
+        <v>0.116598312560761</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.621219061077625</v>
+        <v>2.710446763907953</v>
       </c>
       <c r="C7">
-        <v>0.339406115551725</v>
+        <v>0.710381959680717</v>
       </c>
       <c r="D7">
-        <v>0.6522798088965942</v>
+        <v>0.4680798845292315</v>
       </c>
       <c r="E7">
-        <v>0.2644892192270163</v>
+        <v>0.2071198459422234</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.337769102304833</v>
+        <v>2.471061918222091</v>
       </c>
       <c r="H7">
-        <v>1.853475408482353</v>
+        <v>1.412357812307079</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1363437142823969</v>
+        <v>0.1212995240944608</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.763078089718306</v>
+        <v>3.309385960738837</v>
       </c>
       <c r="C8">
-        <v>0.3784304662051454</v>
+        <v>0.8715323266495432</v>
       </c>
       <c r="D8">
-        <v>0.6636383191798814</v>
+        <v>0.539955434110567</v>
       </c>
       <c r="E8">
-        <v>0.270200207070495</v>
+        <v>0.2410224852922838</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.413418377106524</v>
+        <v>2.851072877534449</v>
       </c>
       <c r="H8">
-        <v>1.878878300684761</v>
+        <v>1.577356332934187</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1402275345665771</v>
+        <v>0.1427532342287563</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.050514955470817</v>
+        <v>4.539169813275862</v>
       </c>
       <c r="C9">
-        <v>0.4568666952109766</v>
+        <v>1.201904455406691</v>
       </c>
       <c r="D9">
-        <v>0.6889554992229137</v>
+        <v>0.6925127553615482</v>
       </c>
       <c r="E9">
-        <v>0.282700029089888</v>
+        <v>0.31289242808149</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.574345834378363</v>
+        <v>3.671697369348522</v>
       </c>
       <c r="H9">
-        <v>1.936996759959186</v>
+        <v>1.939122891575749</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.148563244009928</v>
+        <v>0.1881693044502271</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.267495682378581</v>
+        <v>5.493921754651865</v>
       </c>
       <c r="C10">
-        <v>0.5157034099338489</v>
+        <v>1.458314118652766</v>
       </c>
       <c r="D10">
-        <v>0.7094429611132966</v>
+        <v>0.8146388573395029</v>
       </c>
       <c r="E10">
-        <v>0.2926927000004582</v>
+        <v>0.3703983639279542</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.700560783556853</v>
+        <v>4.340328096564008</v>
       </c>
       <c r="H10">
-        <v>1.984895272953707</v>
+        <v>2.237492510687389</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1551373350398109</v>
+        <v>0.2244919147062774</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.367503136521293</v>
+        <v>5.94418532300773</v>
       </c>
       <c r="C11">
-        <v>0.5427430697430964</v>
+        <v>1.579294019457734</v>
       </c>
       <c r="D11">
-        <v>0.7191802061817896</v>
+        <v>0.8731900933524344</v>
       </c>
       <c r="E11">
-        <v>0.2974179737794529</v>
+        <v>0.3979700210504618</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.759781383129791</v>
+        <v>4.664172977736371</v>
       </c>
       <c r="H11">
-        <v>2.00784473781971</v>
+        <v>2.38284373390951</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1582282642519601</v>
+        <v>0.2419097313332088</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.405563231881843</v>
+        <v>6.117469101011523</v>
       </c>
       <c r="C12">
-        <v>0.5530225316312567</v>
+        <v>1.625869231714944</v>
       </c>
       <c r="D12">
-        <v>0.7229280182389175</v>
+        <v>0.8958755705446606</v>
       </c>
       <c r="E12">
-        <v>0.2992334126267053</v>
+        <v>0.4086535368128281</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.782471618890554</v>
+        <v>4.790185497751679</v>
       </c>
       <c r="H12">
-        <v>2.016704317588051</v>
+        <v>2.439527323418019</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.159413341989989</v>
+        <v>0.2486598431919447</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.397357847148214</v>
+        <v>6.080017042017232</v>
       </c>
       <c r="C13">
-        <v>0.5508068701616935</v>
+        <v>1.6158020040005</v>
       </c>
       <c r="D13">
-        <v>0.7221181595958512</v>
+        <v>0.8909655315148655</v>
       </c>
       <c r="E13">
-        <v>0.2988412612537132</v>
+        <v>0.4063411426867418</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.777573016154577</v>
+        <v>4.762886295308135</v>
       </c>
       <c r="H13">
-        <v>2.014788690425291</v>
+        <v>2.427241821487087</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1591574615914482</v>
+        <v>0.2471987580452293</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.370630553584476</v>
+        <v>5.95838268834342</v>
       </c>
       <c r="C14">
-        <v>0.5435879591767048</v>
+        <v>1.583109613086606</v>
       </c>
       <c r="D14">
-        <v>0.719487324892981</v>
+        <v>0.8750456237171989</v>
       </c>
       <c r="E14">
-        <v>0.2975668068263388</v>
+        <v>0.3988438417762339</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.761642788146276</v>
+        <v>4.674468863520644</v>
       </c>
       <c r="H14">
-        <v>2.008570218272666</v>
+        <v>2.38747256102431</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1583254674547021</v>
+        <v>0.2424618086362358</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.354284053713457</v>
+        <v>5.884255958785729</v>
       </c>
       <c r="C15">
-        <v>0.539171413596705</v>
+        <v>1.563188484848069</v>
       </c>
       <c r="D15">
-        <v>0.717883760599392</v>
+        <v>0.8653637930678428</v>
       </c>
       <c r="E15">
-        <v>0.2967895709356867</v>
+        <v>0.3942844428738468</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.751919686738972</v>
+        <v>4.620768771357348</v>
       </c>
       <c r="H15">
-        <v>2.004783316606961</v>
+        <v>2.363335098662105</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1578177551057394</v>
+        <v>0.2395812392484089</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.260986345689162</v>
+        <v>5.464856374583803</v>
       </c>
       <c r="C16">
-        <v>0.5139418840631151</v>
+        <v>1.450506387363589</v>
       </c>
       <c r="D16">
-        <v>0.7088150514007339</v>
+        <v>0.8108794016574166</v>
       </c>
       <c r="E16">
-        <v>0.2923875274860208</v>
+        <v>0.3686281333169035</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.69672733410161</v>
+        <v>4.319604843302699</v>
       </c>
       <c r="H16">
-        <v>1.983419011755899</v>
+        <v>2.228208137590968</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1549373700526928</v>
+        <v>0.223373712319983</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.20408621931972</v>
+        <v>5.211970983527294</v>
       </c>
       <c r="C17">
-        <v>0.4985351560888489</v>
+        <v>1.382581671011565</v>
       </c>
       <c r="D17">
-        <v>0.7033589539820184</v>
+        <v>0.778276469977385</v>
       </c>
       <c r="E17">
-        <v>0.2897331884028773</v>
+        <v>0.3532764932474208</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.663334509130152</v>
+        <v>4.14025220878753</v>
       </c>
       <c r="H17">
-        <v>1.970611468691146</v>
+        <v>2.147946292396938</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1531961745293131</v>
+        <v>0.2136768935174871</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.171481166538229</v>
+        <v>5.067984835216862</v>
       </c>
       <c r="C18">
-        <v>0.4896994143367124</v>
+        <v>1.343911798772695</v>
       </c>
       <c r="D18">
-        <v>0.7002600071398604</v>
+        <v>0.7598003381485512</v>
       </c>
       <c r="E18">
-        <v>0.2882233676391053</v>
+        <v>0.3445767757270417</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.644297402415532</v>
+        <v>4.038907732817592</v>
       </c>
       <c r="H18">
-        <v>1.963353973050431</v>
+        <v>2.102669472668282</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1522041185381369</v>
+        <v>0.2081819430181611</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.160462610587956</v>
+        <v>5.019472092611295</v>
       </c>
       <c r="C19">
-        <v>0.4867121959240421</v>
+        <v>1.330883481392391</v>
       </c>
       <c r="D19">
-        <v>0.6992174840129053</v>
+        <v>0.7535897950292565</v>
       </c>
       <c r="E19">
-        <v>0.2877150604469492</v>
+        <v>0.3416524572792312</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.63788073179677</v>
+        <v>4.004890689191768</v>
       </c>
       <c r="H19">
-        <v>1.960915372619638</v>
+        <v>2.087484832870814</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1518698402167473</v>
+        <v>0.206334890587172</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.210130651561769</v>
+        <v>5.23873600493198</v>
       </c>
       <c r="C20">
-        <v>0.5001725536866388</v>
+        <v>1.389770190892932</v>
       </c>
       <c r="D20">
-        <v>0.703935698378757</v>
+        <v>0.7817179691871559</v>
       </c>
       <c r="E20">
-        <v>0.2900139979468292</v>
+        <v>0.3548969677978562</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.666871646105079</v>
+        <v>4.159153150439948</v>
       </c>
       <c r="H20">
-        <v>1.971963549344849</v>
+        <v>2.156396705333918</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1533805501246661</v>
+        <v>0.2147004364822038</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.378475847830543</v>
+        <v>5.994029910724407</v>
       </c>
       <c r="C21">
-        <v>0.5457072338941771</v>
+        <v>1.592690220706345</v>
       </c>
       <c r="D21">
-        <v>0.720258417971479</v>
+        <v>0.8797070179310253</v>
       </c>
       <c r="E21">
-        <v>0.2979404350702737</v>
+        <v>0.401039039854254</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.766314657527857</v>
+        <v>4.700342603245474</v>
       </c>
       <c r="H21">
-        <v>2.010392126191789</v>
+        <v>2.399106886510651</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1585694463296932</v>
+        <v>0.2438487467893964</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.489604490846261</v>
+        <v>6.504149383679191</v>
       </c>
       <c r="C22">
-        <v>0.5757010073887727</v>
+        <v>1.72984096212582</v>
       </c>
       <c r="D22">
-        <v>0.7312793118694287</v>
+        <v>0.9467911780911322</v>
       </c>
       <c r="E22">
-        <v>0.3032729608342635</v>
+        <v>0.4326345046023974</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.832851610610646</v>
+        <v>5.074072829207694</v>
       </c>
       <c r="H22">
-        <v>2.036494239094282</v>
+        <v>2.567461241182741</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.162045934736355</v>
+        <v>0.2638142931379832</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.430191140319948</v>
+        <v>6.230194888960739</v>
       </c>
       <c r="C23">
-        <v>0.5596711118884627</v>
+        <v>1.656173303967648</v>
       </c>
       <c r="D23">
-        <v>0.725364777621337</v>
+        <v>0.9106771817805281</v>
       </c>
       <c r="E23">
-        <v>0.3004128829294856</v>
+        <v>0.415624595029783</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.797196480808338</v>
+        <v>4.872563709539463</v>
       </c>
       <c r="H23">
-        <v>2.022471994147566</v>
+        <v>2.476618524711455</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1601826066966368</v>
+        <v>0.2530647056990887</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.207397628801061</v>
+        <v>5.226631210331504</v>
       </c>
       <c r="C24">
-        <v>0.4994322184062412</v>
+        <v>1.386519084588201</v>
       </c>
       <c r="D24">
-        <v>0.7036748344233388</v>
+        <v>0.7801612395014672</v>
       </c>
       <c r="E24">
-        <v>0.2898869935305086</v>
+        <v>0.3541639612298226</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.665272005783748</v>
+        <v>4.150602568685059</v>
       </c>
       <c r="H24">
-        <v>1.97135194452332</v>
+        <v>2.152573592709047</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1532971659593869</v>
+        <v>0.214237445771829</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.971748911304303</v>
+        <v>4.198911739389246</v>
       </c>
       <c r="C25">
-        <v>0.4354385768227758</v>
+        <v>1.11052988399382</v>
       </c>
       <c r="D25">
-        <v>0.6817775049526631</v>
+        <v>0.6497199051130167</v>
       </c>
       <c r="E25">
-        <v>0.279177608410599</v>
+        <v>0.2927394627298057</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.529431850769811</v>
+        <v>3.439761822285988</v>
       </c>
       <c r="H25">
-        <v>1.920371187916118</v>
+        <v>1.836289973224126</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1462300382451573</v>
+        <v>0.1754387927669399</v>
       </c>
       <c r="K25">
         <v>0</v>
